--- a/CVV.xlsx
+++ b/CVV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CartaVinhosVirtual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E912FCBE-BECE-4B69-A18A-0B28974F8BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D238F1-9B6D-4A2E-88F5-F11C8C3A6261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
